--- a/biology/Zoologie/Octave_Duboscq/Octave_Duboscq.xlsx
+++ b/biology/Zoologie/Octave_Duboscq/Octave_Duboscq.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Octave Joseph René Duboscq est un zoologiste français, né le 30 octobre 1868 à Rouen et mort le 18 février 1943 à Nice[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Octave Joseph René Duboscq est un zoologiste français, né le 30 octobre 1868 à Rouen et mort le 18 février 1943 à Nice.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père est employé des chemins de fer et meurt alors qu’Octave Duboscq était encore jeune. Il étudie à Coutances où il obtient son baccalauréat en 1886. Il étudie la médecine à l'Université de Caen puis à Paris : il obtient sa licence en sciences naturelles (1889), son doctorat de médecine (1894 – sa thèse porte sur le venin de la scolopendre) et de sciences (1899 – sa thèse porte sur les chilopodes).
 De 1895 à 1900, il est chef de travaux à la faculté des sciences de Grenoble, puis, de 1900 à 1904, maître de conférences à Caen, puis, de 1904 à 1923, professeur à Montpellier. Il reçoit alors la chaire de biologie marine à la faculté des sciences de Paris, fonction qu’il tient jusqu’en 1937, date à laquelle il est nommé professeur honoraire. Il prend alors sa retraite. Il dirige le laboratoire Arago de Banyuls-sur-Mer (1923), puis la station de Villefranche-sur-Mer (1931). Il est fait chevalier de la Légion d’honneur (1912). Il est membre de diverses sociétés savantes.
@@ -545,14 +559,53 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Décorations
- Officier de l'Instruction publique (1908)[2]
- Officier de la Légion d'honneur (1935)[2], chevalier (1922)
-Hommages
-En 1920, le zoologiste Édouard Chatton lui dédie le genre de protistes Duboscquella[3].
-En 1938, le lichénologue Henry des Abbayes lui dédie l'espèce de lichen Parmelia duboscqii[4].
-En 1950, le myrmécologue Francis Bernard lui dédie l'espèce de fourmi Solenopsis duboscqui[5].
-En 1952, le zoologiste Pierre-Paul Grassé lui dédie le genre de protistes Duboscquodinium[6].</t>
+          <t>Décorations</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Officier de l'Instruction publique (1908)
+ Officier de la Légion d'honneur (1935), chevalier (1922)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Octave_Duboscq</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Octave_Duboscq</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Distinctions et reconnaissances</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Hommages</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>En 1920, le zoologiste Édouard Chatton lui dédie le genre de protistes Duboscquella.
+En 1938, le lichénologue Henry des Abbayes lui dédie l'espèce de lichen Parmelia duboscqii.
+En 1950, le myrmécologue Francis Bernard lui dédie l'espèce de fourmi Solenopsis duboscqui.
+En 1952, le zoologiste Pierre-Paul Grassé lui dédie le genre de protistes Duboscquodinium.</t>
         </is>
       </c>
     </row>
